--- a/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
+++ b/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
   <si>
     <t xml:space="preserve">questionName</t>
   </si>
@@ -237,6 +237,27 @@
     <t xml:space="preserve">Save and continue</t>
   </si>
   <si>
+    <t xml:space="preserve">other_comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Commentaires et suggestions** sur la section autre (facultatif)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Comments and suggestions** on the other section (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_nextButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other.saveAndContinue</t>
+  </si>
+  <si>
     <t xml:space="preserve">end_thankYouMessage</t>
   </si>
   <si>
@@ -254,9 +275,6 @@
 We thank you for taking the time to fill out this questionnaire. Your answers have been recorded. You can edit your answers by clicking on any of the sections in the menu at the top of the page.</t>
   </si>
   <si>
-    <t xml:space="preserve">end_nextButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">end.nextButton</t>
   </si>
   <si>
@@ -413,18 +431,18 @@
     <t xml:space="preserve">in_nav</t>
   </si>
   <si>
+    <t xml:space="preserve">parent_section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has_preload</t>
+  </si>
+  <si>
     <t xml:space="preserve">template</t>
   </si>
   <si>
-    <t xml:space="preserve">parent_section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has_preload</t>
-  </si>
-  <si>
     <t xml:space="preserve">Domicile</t>
   </si>
   <si>
@@ -435,6 +453,15 @@
   </si>
   <si>
     <t xml:space="preserve">FAUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripsAndSegmentsWithMap</t>
   </si>
   <si>
     <t xml:space="preserve">Fin</t>
@@ -447,12 +474,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +517,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -554,56 +588,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -872,12 +914,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="1" sqref="H3 B5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1217,12 +1259,12 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" s="5" customFormat="true" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
@@ -1245,8 +1287,9 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>73</v>
       </c>
@@ -1263,10 +1306,10 @@
         <v>74</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1274,6 +1317,67 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1296,7 +1400,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="H3 A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1305,31 +1409,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.15"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1338,10 +1442,10 @@
         <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -1366,7 +1470,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="H3 A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1379,10 +1483,10 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>5</v>
@@ -1391,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -1402,13 +1506,13 @@
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1418,45 +1522,45 @@
         <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1469,7 +1573,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1478,13 +1582,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1494,45 +1598,45 @@
         <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1558,7 +1662,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="H3 A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1569,50 +1673,50 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="13.58"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>-10</v>
@@ -1621,10 +1725,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1643,10 +1747,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1656,25 +1760,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,42 +1786,62 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11" t="s">
-        <v>133</v>
+      <c r="G2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="H3" s="11" t="s">
-        <v>133</v>
+      <c r="B3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="G4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
+++ b/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
@@ -14,16 +14,16 @@
     <sheet r:id="rId5" sheetId="5" name="Sections"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Widgets!$A$2:$M$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Widgets!$A$1:$M$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">InputRange!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Widgets!$A$1:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">=Widgets!$A$1:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">=InputRange!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="166">
   <si>
     <t>section</t>
   </si>
@@ -64,9 +64,6 @@
     <t>VRAI</t>
   </si>
   <si>
-    <t>FAUX</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -109,12 +106,18 @@
     <t>labelFrMin</t>
   </si>
   <si>
+    <t>labelFrMiddle</t>
+  </si>
+  <si>
     <t>labelFrMax</t>
   </si>
   <si>
     <t>labelEnMin</t>
   </si>
   <si>
+    <t>labelEnMiddle</t>
+  </si>
+  <si>
     <t>labelEnMax</t>
   </si>
   <si>
@@ -130,24 +133,36 @@
     <t>unitEn</t>
   </si>
   <si>
+    <t>input_color</t>
+  </si>
+  <si>
     <t>confidentInputRange</t>
   </si>
   <si>
     <t>Pas du tout confiant</t>
   </si>
   <si>
+    <t>Neutre</t>
+  </si>
+  <si>
     <t>Très confiant</t>
   </si>
   <si>
     <t>Not at all confident</t>
   </si>
   <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Very confident</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
+    <t>red-yellow-green</t>
+  </si>
+  <si>
     <t>choicesName</t>
   </si>
   <si>
@@ -295,118 +310,151 @@
     <t>confirm_popup</t>
   </si>
   <si>
+    <t>containsHtml</t>
+  </si>
+  <si>
+    <t>customPath</t>
+  </si>
+  <si>
+    <t>customChoice</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>includeNotApplicable</t>
+  </si>
+  <si>
     <t>home_welcomeMessage</t>
   </si>
   <si>
+    <t>InfoText</t>
+  </si>
+  <si>
+    <t>home.welcomeMessage</t>
+  </si>
+  <si>
+    <t>Bienvenue à notre enquête qui montre quelques exemples de **questions potentielles**.</t>
+  </si>
+  <si>
+    <t>Welcome to our survey which shows some examples of **potential questions**.</t>
+  </si>
+  <si>
+    <t>home_email</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>home.email</t>
+  </si>
+  <si>
+    <t>**Courriel**</t>
+  </si>
+  <si>
+    <t>**E-mail**</t>
+  </si>
+  <si>
+    <t>emailValidation</t>
+  </si>
+  <si>
+    <t>home_postalCode</t>
+  </si>
+  <si>
+    <t>home.postalCode</t>
+  </si>
+  <si>
+    <t>**Code postal**</t>
+  </si>
+  <si>
+    <t>**Postal code**</t>
+  </si>
+  <si>
+    <t>postalCodeValidation</t>
+  </si>
+  <si>
+    <t>home_select</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>home.select</t>
+  </si>
+  <si>
+    <t>Êtes-vous **propriétaire d'un domicile** ?</t>
+  </si>
+  <si>
+    <t>Are you **home owner**?</t>
+  </si>
+  <si>
+    <t>home_doYouHaveChild</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Avez-vous un **enfant** ?</t>
+  </si>
+  <si>
+    <t>Do you have a **child**?</t>
+  </si>
+  <si>
+    <t>home_ageYoungestChild</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>home.ageYoungestChild</t>
+  </si>
+  <si>
+    <t>**Âge** de votre enfant le plus jeune&amp;#10;__Inscrire 0 pour les bébés de moins de 1an__</t>
+  </si>
+  <si>
+    <t>**Age** of your youngest child&amp;#10;__Enter 0 for babies under 1 year old__</t>
+  </si>
+  <si>
+    <t>ageValidation</t>
+  </si>
+  <si>
+    <t>home_transportModesUse</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>home.transportModesUse</t>
+  </si>
+  <si>
+    <t>Sélectionnez tous les **modes de transports** que vous utilisez fréquemment</t>
+  </si>
+  <si>
+    <t>Select all **transport modes** that you use frequently</t>
+  </si>
+  <si>
+    <t>home_goodAnswers</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>home.goodAnswers</t>
+  </si>
+  <si>
+    <t>Êtes-vous **confiant** d&amp;apos;avoir répondu les **bonnes réponses** aux questions ?</t>
+  </si>
+  <si>
+    <t>Are you **confident** that you answered the **correct answers** to the questions?</t>
+  </si>
+  <si>
+    <t>inputRangeValidation</t>
+  </si>
+  <si>
+    <t>home_comments</t>
+  </si>
+  <si>
     <t>Text</t>
-  </si>
-  <si>
-    <t>home.welcomeMessage</t>
-  </si>
-  <si>
-    <t>Bienvenue à notre enquête qui montre quelques exemples de **questions potentielles**.</t>
-  </si>
-  <si>
-    <t>Welcome to our survey which shows some examples of **potential questions**.</t>
-  </si>
-  <si>
-    <t>home_email</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>home.email</t>
-  </si>
-  <si>
-    <t>**Courriel**</t>
-  </si>
-  <si>
-    <t>**E-mail**</t>
-  </si>
-  <si>
-    <t>emailValidation</t>
-  </si>
-  <si>
-    <t>home_postalCode</t>
-  </si>
-  <si>
-    <t>home.postalCode</t>
-  </si>
-  <si>
-    <t>**Code postal**</t>
-  </si>
-  <si>
-    <t>**Postal code**</t>
-  </si>
-  <si>
-    <t>home_doYouHaveChild</t>
-  </si>
-  <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>Avez-vous un **enfant** ?</t>
-  </si>
-  <si>
-    <t>Do you have a **child**?</t>
-  </si>
-  <si>
-    <t>home_ageYoungestChild</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>home.ageYoungestChild</t>
-  </si>
-  <si>
-    <t>**Âge** de votre enfant le plus jeune&amp;#10;__Inscrire 0 pour les bébés de moins de 1an__</t>
-  </si>
-  <si>
-    <t>**Age** of your youngest child&amp;#10;__Enter 0 for babies under 1 year old__</t>
-  </si>
-  <si>
-    <t>ageValidation</t>
-  </si>
-  <si>
-    <t>home_transportModesUse</t>
-  </si>
-  <si>
-    <t>Checkbox</t>
-  </si>
-  <si>
-    <t>home.transportModesUse</t>
-  </si>
-  <si>
-    <t>Sélectionnez tous les **modes de transports** que vous utilisez fréquemment</t>
-  </si>
-  <si>
-    <t>Select all **transport modes** that you use frequently</t>
-  </si>
-  <si>
-    <t>home_goodAnswers</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>home.goodAnswers</t>
-  </si>
-  <si>
-    <t>Êtes-vous **confiant** d&amp;apos;avoir répondu les **bonnes réponses** aux questions ?</t>
-  </si>
-  <si>
-    <t>Are you **confident** that you answered the **correct answers** to the questions?</t>
-  </si>
-  <si>
-    <t>inputRangeValidation</t>
-  </si>
-  <si>
-    <t>home_comments</t>
-  </si>
-  <si>
-    <t>TextArea</t>
   </si>
   <si>
     <t>home.comments</t>
@@ -479,9 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;vrai&quot;;&quot;vrai&quot;;&quot;faux&quot;"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,12 +535,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -506,6 +546,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -557,18 +603,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -577,38 +626,26 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +949,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -920,471 +957,623 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="64.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="64.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="65.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="64.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="64.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="65.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="I7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="6" t="s">
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="46.5">
+      <c r="A14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,49 +1593,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="46.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="46.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10"/>
+      <c r="D1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,173 +1655,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="28.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1644,7 +1833,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1652,73 +1841,94 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="12">
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9">
         <v>-10</v>
       </c>
-      <c r="G2" s="12">
+      <c r="I2" s="9">
         <v>100</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1737,18 +1947,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1968,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1767,7 +1977,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1777,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1787,69 +1997,69 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
+++ b/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Widgets"/>
@@ -528,7 +528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,12 +546,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -603,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -643,9 +637,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,35 +1144,35 @@
       <c r="S4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
         <v>18</v>
@@ -1189,7 +1180,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="14"/>
+      <c r="S5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
@@ -1649,7 +1640,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -1683,7 +1674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -1699,7 +1690,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1715,7 +1706,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1731,7 +1722,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1738,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -1759,7 +1750,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -1775,7 +1766,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -1791,7 +1782,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1807,7 +1798,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -1851,7 +1842,7 @@
     <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -1943,7 +1934,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
+++ b/packages/evolution-generator/src/examples/Example_Generate_Survey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Widgets"/>
@@ -1640,7 +1640,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
@@ -1826,7 +1826,7 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
